--- a/biology/Zoologie/Allobates_talamancae/Allobates_talamancae.xlsx
+++ b/biology/Zoologie/Allobates_talamancae/Allobates_talamancae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allobates talamancae est une espèce d'amphibiens de la famille des Aromobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allobates talamancae est une espèce d'amphibiens de la famille des Aromobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Costa Rica, au Nicaragua, au Panama, en Colombie le long du Pacifique et dans la province d'Esmeraldas en Équateur[1]. Elle se rencontre du niveau de la mer jusqu'à 800 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Costa Rica, au Nicaragua, au Panama, en Colombie le long du Pacifique et dans la province d'Esmeraldas en Équateur. Elle se rencontre du niveau de la mer jusqu'à 800 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 24 mm et les femelles jusqu'à 25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 24 mm et les femelles jusqu'à 25 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1876 "1875" : On the Batrachia and Reptilia of Costa Rica : With notes on the herpetology and ichthyology of Nicaragua and Peru. Journal of the Academy of Natural Sciences of Philadelphia, ser. 2, vol. 8, p. 93–154 (texte intégral).</t>
         </is>
